--- a/TestData/ProspectData.xlsx
+++ b/TestData/ProspectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajendraKumarBelandu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive - Arthur J. Gallagher &amp; Co\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A5A23B-B87A-41CC-AB5D-8FDE7D3A2669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49D0E7-C07F-4941-ADA6-33925BE640A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEBF550B-7FD8-409E-BF37-8A7D754D79C6}"/>
+    <workbookView xWindow="5760" yWindow="3588" windowWidth="17280" windowHeight="8772" xr2:uid="{EEBF550B-7FD8-409E-BF37-8A7D754D79C6}"/>
   </bookViews>
   <sheets>
     <sheet name="ProspectCreate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>AdditionName</t>
   </si>
@@ -53,24 +53,6 @@
     <t>PhyPostcode</t>
   </si>
   <si>
-    <t>FromSerial</t>
-  </si>
-  <si>
-    <t>ToSerial</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Prod Status(descrite)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Electrical supply store in Arlington</t>
   </si>
   <si>
@@ -84,19 +66,100 @@
   </si>
   <si>
     <t>22207</t>
+  </si>
+  <si>
+    <t>CaptiveName</t>
+  </si>
+  <si>
+    <t>ProgramManager</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>CaptiveExecutive</t>
+  </si>
+  <si>
+    <t>ProgramCoordinator</t>
+  </si>
+  <si>
+    <t>Megan Apple</t>
+  </si>
+  <si>
+    <t>ReceivedSubmission</t>
+  </si>
+  <si>
+    <t>BusinessDevelopmentExecutive</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>LineOfBusiness</t>
+  </si>
+  <si>
+    <t>Dan Petersen</t>
+  </si>
+  <si>
+    <t>Megan Henning</t>
+  </si>
+  <si>
+    <t>Chris Murray</t>
+  </si>
+  <si>
+    <t>08/25/2022</t>
+  </si>
+  <si>
+    <t>07/25/2022</t>
+  </si>
+  <si>
+    <t>Alliant Insurance Services Inc.</t>
+  </si>
+  <si>
+    <t>Casualty</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CasualtyLineOfCoverage</t>
+  </si>
+  <si>
+    <t>DevTest_0125252111</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>DevTest_0207251155</t>
+  </si>
+  <si>
+    <t>DevTest_0207251152</t>
+  </si>
+  <si>
+    <t>DevTest_0102251618</t>
+  </si>
+  <si>
+    <t>Archway</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,9 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D75E95-77CD-49B1-9C76-5C3041755C85}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -468,9 +534,11 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,41 +555,237 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
